--- a/biology/Médecine/Normocytaire/Normocytaire.xlsx
+++ b/biology/Médecine/Normocytaire/Normocytaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une anémie est dite normocytaire si le volume globulaire moyen (VGM) est normal. Sur un frottis coloré les globules rouges ont un aspect normal. Il se différencie des qualificatifs de microcytaire et de macrocytaire.
 </t>
